--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P07_trail10 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P07_trail10 Features.xlsx
@@ -2791,7 +2791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2802,29 +2802,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="21" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2845,115 +2843,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -2970,72 +2958,66 @@
         <v>7.028651628817896e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.054451328568657</v>
+        <v>2.804050544066806e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.6399829889197193</v>
+        <v>2.564317121144061e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.804050544066806e-07</v>
+        <v>0.0465364810724061</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.564317121144061e-06</v>
+        <v>0.2219488207864076</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.0465364810724061</v>
+        <v>0.05140465263064615</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2219488207864076</v>
+        <v>1.851633572536559</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.05140465263064615</v>
+        <v>1.76290297616451</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.802422037191777</v>
+        <v>3.910435254934382</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.76290297616451</v>
+        <v>8.007467238759429e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.910435254934382</v>
+        <v>216721146.897254</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>8.007467238759429e-16</v>
+        <v>5.47679235415649e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>216721146.897254</v>
+        <v>37.60951657842669</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>5.47679235415649e-07</v>
+        <v>0.0001589612903458317</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>37.60951657842669</v>
+        <v>10.4799463300165</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001589612903458317</v>
+        <v>1.320218166522301</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.4799463300165</v>
+        <v>0.01745860328446829</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.320218166522301</v>
+        <v>3.105475393020151</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01745860328446829</v>
+        <v>0.9591237472132753</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.105475393020151</v>
+        <v>1.594321374395292</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9591237472132753</v>
+        <v>33</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.594321374395292</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.249704215866692</v>
       </c>
     </row>
@@ -3050,72 +3032,66 @@
         <v>6.878774645212183e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-1.122903076843907</v>
+        <v>2.804050544066806e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.961592637692394</v>
+        <v>2.567986436390836e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.804050544066806e-07</v>
+        <v>0.05859490781305442</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.567986436390836e-06</v>
+        <v>0.2167468874265742</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.05859490781305442</v>
+        <v>0.05040140065640182</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2167468874265742</v>
+        <v>1.841822246201235</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.05040140065640182</v>
+        <v>1.942353027747839</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.794892153815525</v>
+        <v>4.17578191115215</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.942353027747839</v>
+        <v>7.022144346239374e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.17578191115215</v>
+        <v>250911207.1000698</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>7.022144346239374e-16</v>
+        <v>4.715660907883418e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>250911207.1000698</v>
+        <v>44.20891660080344</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>4.715660907883418e-07</v>
+        <v>0.0001565568049917033</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>44.20891660080344</v>
+        <v>8.691872715890479</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001565568049917033</v>
+        <v>1.585162505232292</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.691872715890479</v>
+        <v>0.01182765547040709</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.585162505232292</v>
+        <v>3.16586384951333</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01182765547040709</v>
+        <v>0.9588427929196989</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.16586384951333</v>
+        <v>1.590910500382045</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9588427929196989</v>
+        <v>33</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.590910500382045</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2295669599072305</v>
       </c>
     </row>
@@ -3130,72 +3106,66 @@
         <v>6.632450390161483e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-1.139077920004471</v>
+        <v>2.837441745890228e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1.262248922732358</v>
+        <v>2.572313697854992e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.837441745890228e-07</v>
+        <v>0.06921056559296158</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.572313697854992e-06</v>
+        <v>0.2206893208197057</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.06921056559296158</v>
+        <v>0.05348876097498686</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2206893208197057</v>
+        <v>1.838056805345508</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.05348876097498686</v>
+        <v>2.07813044416497</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.792892264515666</v>
+        <v>4.238673738474604</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.07813044416497</v>
+        <v>6.81530649691742e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.238673738474604</v>
+        <v>256376566.240977</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>6.81530649691742e-16</v>
+        <v>4.608414172454747e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>256376566.240977</v>
+        <v>44.79628971534932</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.608414172454747e-07</v>
+        <v>0.0001478689691320458</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>44.79628971534932</v>
+        <v>8.612402550485697</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001478689691320458</v>
+        <v>1.347143436756443</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.612402550485697</v>
+        <v>0.01096795568319754</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.347143436756443</v>
+        <v>3.050732250044627</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01096795568319754</v>
+        <v>0.9588634577904924</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.050732250044627</v>
+        <v>1.602983056559627</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9588634577904924</v>
+        <v>16</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.602983056559627</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2309784935903739</v>
       </c>
     </row>
@@ -3210,72 +3180,66 @@
         <v>6.31741944045235e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-1.060102091598674</v>
+        <v>2.985705552345926e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>1.386311823269331</v>
+        <v>2.577107734153927e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.985705552345926e-07</v>
+        <v>0.07868351227378341</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.577107734153927e-06</v>
+        <v>0.2310484612904177</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.07868351227378341</v>
+        <v>0.05957117827249473</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2310484612904177</v>
+        <v>1.826953738948139</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.05957117827249473</v>
+        <v>1.954782943868344</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.779372730142381</v>
+        <v>4.23100142780807</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.954782943868344</v>
+        <v>6.840046057533805e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.23100142780807</v>
+        <v>253818304.3023461</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>6.840046057533805e-16</v>
+        <v>4.641543663540936e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>253818304.3023461</v>
+        <v>44.06612913347976</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.641543663540936e-07</v>
+        <v>0.0001561416958095259</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>44.06612913347976</v>
+        <v>10.20921550298216</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001561416958095259</v>
+        <v>1.158903641836061</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>10.20921550298216</v>
+        <v>0.01627434934740671</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.158903641836061</v>
+        <v>2.784482360693933</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01627434934740671</v>
+        <v>0.960952459499015</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.784482360693933</v>
+        <v>1.611992376655812</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.960952459499015</v>
+        <v>16</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.611992376655812</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.23901020345823</v>
       </c>
     </row>
@@ -3290,72 +3254,66 @@
         <v>5.979002897445012e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.840861940346967</v>
+        <v>3.132256702134883e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>1.188384421370499</v>
+        <v>2.582213250662207e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3.132256702134883e-07</v>
+        <v>0.08733200943812554</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.582213250662207e-06</v>
+        <v>0.2455513171268032</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.08733200943812554</v>
+        <v>0.06791508778887473</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2455513171268032</v>
+        <v>1.794303087692812</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.06791508778887473</v>
+        <v>1.870982317974616</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.738220530971242</v>
+        <v>4.161157059432524</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.870982317974616</v>
+        <v>7.371011604103591e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.161157059432524</v>
+        <v>246678089.8581758</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>7.371011604103591e-16</v>
+        <v>4.743818590098804e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>246678089.8581758</v>
+        <v>44.85266459091448</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>4.743818590098804e-07</v>
+        <v>0.0001575832021751538</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>44.85266459091448</v>
+        <v>10.92251543399015</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001575832021751538</v>
+        <v>1.130876456380713</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>10.92251543399015</v>
+        <v>0.01879988771767622</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.130876456380713</v>
+        <v>2.762805120482932</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01879988771767622</v>
+        <v>0.958467478047617</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.762805120482932</v>
+        <v>1.596307652773782</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.958467478047617</v>
+        <v>17</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.596307652773782</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2461390165670853</v>
       </c>
     </row>
@@ -3370,72 +3328,66 @@
         <v>5.686301553131705e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.4654845338560311</v>
+        <v>3.139711086329315e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.6886331036380717</v>
+        <v>2.5874701097219e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3.139711086329315e-07</v>
+        <v>0.09205094072912906</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.5874701097219e-06</v>
+        <v>0.2582741683950894</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.09205094072912906</v>
+        <v>0.07516817299605967</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2582741683950894</v>
+        <v>1.739274564997089</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.07516817299605967</v>
+        <v>1.668268532360447</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.66789678646066</v>
+        <v>4.923076590752413</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.668268532360447</v>
+        <v>1.413130475896696e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.923076590752413</v>
+        <v>131084734.1239515</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.413130475896696e-15</v>
+        <v>8.799158762980928e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>131084734.1239515</v>
+        <v>24.28211422065971</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>8.799158762980928e-07</v>
+        <v>0.0001561796366830857</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>24.28211422065971</v>
+        <v>9.440965457859875</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001561796366830857</v>
+        <v>1.4041801327826</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.440965457859875</v>
+        <v>0.01392057663521329</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.4041801327826</v>
+        <v>3.124632189348059</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01392057663521329</v>
+        <v>0.9562749099951087</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.124632189348059</v>
+        <v>1.715595106955551</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9562749099951087</v>
+        <v>17</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.715595106955551</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2236920774865416</v>
       </c>
     </row>
@@ -3450,72 +3402,66 @@
         <v>5.487041518488295e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.04057805959825776</v>
+        <v>2.943253043747288e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.1754412767937708</v>
+        <v>2.592560526884924e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.943253043747288e-07</v>
+        <v>0.0894223981832776</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.592560526884924e-06</v>
+        <v>0.2634843302052761</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.0894223981832776</v>
+        <v>0.07740531121807682</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.2634843302052761</v>
+        <v>1.729441860632694</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.07740531121807682</v>
+        <v>1.632559304176976</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.651237677233161</v>
+        <v>4.044791478835093</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.632559304176976</v>
+        <v>2.093452795702933e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.044791478835093</v>
+        <v>88373648.32463741</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>2.093452795702933e-15</v>
+        <v>1.301257176501256e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>88373648.32463741</v>
+        <v>16.34966058614493</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.301257176501256e-06</v>
+        <v>0.0001758681966873566</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>16.34966058614493</v>
+        <v>9.200117287136107</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001758681966873566</v>
+        <v>1.842530433097711</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.200117287136107</v>
+        <v>0.0148858637082562</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.842530433097711</v>
+        <v>3.215410881707319</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.0148858637082562</v>
+        <v>0.9557743862082669</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.215410881707319</v>
+        <v>1.712765290981327</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9557743862082669</v>
+        <v>17</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.712765290981327</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2047373749854903</v>
       </c>
     </row>
@@ -3530,72 +3476,66 @@
         <v>5.380624181184662e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.2982521980985575</v>
+        <v>2.664579650367826e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.1700705506175479</v>
+        <v>2.597234240679533e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.664579650367826e-07</v>
+        <v>0.08233105193446168</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.597234240679533e-06</v>
+        <v>0.2630939586140889</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.08233105193446168</v>
+        <v>0.07597821191609819</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2630939586140889</v>
+        <v>1.720946547854734</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.07597821191609819</v>
+        <v>1.588392405924694</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.634033761267315</v>
+        <v>4.144067653361849</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.588392405924694</v>
+        <v>1.994351819362135e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.144067653361849</v>
+        <v>92937331.63592018</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.994351819362135e-15</v>
+        <v>1.234468941135016e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>92937331.63592018</v>
+        <v>17.22590992366765</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.234468941135016e-06</v>
+        <v>0.000113063784552728</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>17.22590992366765</v>
+        <v>9.391017371977258</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.000113063784552728</v>
+        <v>1.439597020931621</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.391017371977258</v>
+        <v>0.009971231659438935</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.439597020931621</v>
+        <v>3.3532090478819</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.009971231659438935</v>
+        <v>0.9551068700373196</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.3532090478819</v>
+        <v>1.765264183436807</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9551068700373196</v>
+        <v>17</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.765264183436807</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2390769771569733</v>
       </c>
     </row>
@@ -3972,7 +3912,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.320221046001379</v>
+        <v>1.318808705703741</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.650055627343309</v>
@@ -4061,7 +4001,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.317315372198459</v>
+        <v>1.315631742290867</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.655014211958326</v>
@@ -4150,7 +4090,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.322860374834233</v>
+        <v>1.319055647701124</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.6497794893294</v>
@@ -4239,7 +4179,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.339389361168526</v>
+        <v>1.334649346542803</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.640977830747711</v>
@@ -4328,7 +4268,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.341450612492783</v>
+        <v>1.336404463060721</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.640175928314419</v>
@@ -4417,7 +4357,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.309483650317747</v>
+        <v>1.298230203512356</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.605268440787145</v>
@@ -4506,7 +4446,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.310209031667436</v>
+        <v>1.296694256998359</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.613048246407299</v>
@@ -4595,7 +4535,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.303148255045885</v>
+        <v>1.285893715421432</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.590200481431391</v>
@@ -4684,7 +4624,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.306519622681699</v>
+        <v>1.287244130049198</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.549289361721032</v>
@@ -4773,7 +4713,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.313251103995661</v>
+        <v>1.292266068462041</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.551625578209415</v>
@@ -4862,7 +4802,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.31385666165864</v>
+        <v>1.293599917685629</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.556854861783775</v>
@@ -4951,7 +4891,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.304807468859336</v>
+        <v>1.284927612470278</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.556958648637961</v>
@@ -5040,7 +4980,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.41919651194892</v>
+        <v>1.405319047997825</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.157552284201279</v>
@@ -5129,7 +5069,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.444697367602253</v>
+        <v>1.432016740705456</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.48493951830149</v>
@@ -5218,7 +5158,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.442092259111415</v>
+        <v>1.430452852709988</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.640948513943356</v>
@@ -5307,7 +5247,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.433696101755416</v>
+        <v>1.427386252328404</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.522179943533766</v>
@@ -5396,7 +5336,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.435806482638754</v>
+        <v>1.428409853925613</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.520696066470828</v>
@@ -5485,7 +5425,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.425436658342261</v>
+        <v>1.418561940598114</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.408959403633753</v>
@@ -5574,7 +5514,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.404829430780831</v>
+        <v>1.39976600420515</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.536427508492194</v>
@@ -5663,7 +5603,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.416463609120694</v>
+        <v>1.407569920066947</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.532248655021048</v>
@@ -5752,7 +5692,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.424649395061554</v>
+        <v>1.411295880899757</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.519005371198336</v>
@@ -5841,7 +5781,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.411558370226904</v>
+        <v>1.402893988557282</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.619018694631301</v>
@@ -5930,7 +5870,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.394383463809716</v>
+        <v>1.391053385253024</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.639458026066138</v>
@@ -6019,7 +5959,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.393641023750541</v>
+        <v>1.384713827191659</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.507177778140478</v>
@@ -6108,7 +6048,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.355169580742775</v>
+        <v>1.349652205245448</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.603812977016092</v>
@@ -6197,7 +6137,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.347984453242723</v>
+        <v>1.339720968357947</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.443790211959591</v>
@@ -6286,7 +6226,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.355832582355918</v>
+        <v>1.344736292038766</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.401751729466564</v>
@@ -6375,7 +6315,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.341448428991639</v>
+        <v>1.327162226654693</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.47141076189813</v>
@@ -6464,7 +6404,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.315469878757981</v>
+        <v>1.296489659868425</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.355662991238439</v>
@@ -6553,7 +6493,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.282597531312722</v>
+        <v>1.260130372931501</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.041509740976928</v>
@@ -6642,7 +6582,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.292814727297399</v>
+        <v>1.265466449251458</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.132731455950749</v>
@@ -6731,7 +6671,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.298438931744539</v>
+        <v>1.269213044995706</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.111944255493446</v>
@@ -6820,7 +6760,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.28958314707989</v>
+        <v>1.260993429372453</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.165925867451005</v>
@@ -6909,7 +6849,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.307350152329188</v>
+        <v>1.279756586793707</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.253301315577979</v>
@@ -6998,7 +6938,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.304293670668828</v>
+        <v>1.27634981829738</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.177114465906641</v>
@@ -7087,7 +7027,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.313536572313419</v>
+        <v>1.281218048297366</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.680402422497448</v>
@@ -7176,7 +7116,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.251523661332409</v>
+        <v>1.228911498292574</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.559830017871742</v>
@@ -7265,7 +7205,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.278047492127043</v>
+        <v>1.263213458972933</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.576820785561801</v>
@@ -7354,7 +7294,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.279071810011218</v>
+        <v>1.264936863106304</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.577453752750608</v>
@@ -7443,7 +7383,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.28128682045949</v>
+        <v>1.270793787367638</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.571000310717263</v>
@@ -7532,7 +7472,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.290115092266006</v>
+        <v>1.276862047104838</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.578962612533443</v>
@@ -7621,7 +7561,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.292563776978418</v>
+        <v>1.278043892615075</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.577856028484214</v>
@@ -7710,7 +7650,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.290564093418344</v>
+        <v>1.277806169009344</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.587466660706399</v>
@@ -7799,7 +7739,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.300297354419627</v>
+        <v>1.288172518550309</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.591786495863936</v>
@@ -7888,7 +7828,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.312398333820898</v>
+        <v>1.299422238115133</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.581005570816069</v>
@@ -7977,7 +7917,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.308038693261923</v>
+        <v>1.296794527081001</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.57744945866685</v>
@@ -8066,7 +8006,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.305182395967984</v>
+        <v>1.292169871636329</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.572216061669996</v>
@@ -8155,7 +8095,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.316446624335634</v>
+        <v>1.301446581755831</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.568885440109641</v>
@@ -8244,7 +8184,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.295828706319838</v>
+        <v>1.28367042123007</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.580383065041049</v>
@@ -8333,7 +8273,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.29517650900999</v>
+        <v>1.284511891576622</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.574021167616575</v>
@@ -8422,7 +8362,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.330590095204641</v>
+        <v>1.31056304777082</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.4368414822867</v>
@@ -8511,7 +8451,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.320232310187412</v>
+        <v>1.308435123457369</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.789153503006783</v>
@@ -8600,7 +8540,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.288915945432919</v>
+        <v>1.271956608285148</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.794775884343539</v>
@@ -8886,7 +8826,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.654609880977522</v>
+        <v>1.664264236343232</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.669626977126156</v>
@@ -8975,7 +8915,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.659414175901899</v>
+        <v>1.66624549274986</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.664915270478017</v>
@@ -9064,7 +9004,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.657996631743498</v>
+        <v>1.662328909705109</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.665830968131521</v>
@@ -9153,7 +9093,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.661201610901474</v>
+        <v>1.663526629132816</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.617758446730981</v>
@@ -9242,7 +9182,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.662515187144419</v>
+        <v>1.666851973896161</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.613908258667961</v>
@@ -9331,7 +9271,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.61839949392613</v>
+        <v>1.60724669608328</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.89492054012327</v>
@@ -9420,7 +9360,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.614438377404437</v>
+        <v>1.597229805646119</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.459703589659137</v>
@@ -9509,7 +9449,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.606564290597212</v>
+        <v>1.591320187912104</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.55291089305551</v>
@@ -9598,7 +9538,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.59832843550502</v>
+        <v>1.574224444663948</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.493148378737311</v>
@@ -9687,7 +9627,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.570436565287957</v>
+        <v>1.542305570683649</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.602206835546533</v>
@@ -9776,7 +9716,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.567854093174963</v>
+        <v>1.535493719167089</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.562787994108941</v>
@@ -9865,7 +9805,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.560512024574989</v>
+        <v>1.531610622781276</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.566420691705692</v>
@@ -9954,7 +9894,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.580229187937277</v>
+        <v>1.555498675740552</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.735433199094923</v>
@@ -10043,7 +9983,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.611227097138249</v>
+        <v>1.58568194301861</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.537018274896936</v>
@@ -10132,7 +10072,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.633701687159691</v>
+        <v>1.612213672530059</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.703154421209596</v>
@@ -10221,7 +10161,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.646904436425098</v>
+        <v>1.625303342011168</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.675965310318853</v>
@@ -10310,7 +10250,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.639363211328498</v>
+        <v>1.624072732286242</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.639558177410725</v>
@@ -10399,7 +10339,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.643727695939628</v>
+        <v>1.63241176983815</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.660155793944065</v>
@@ -10488,7 +10428,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.639085971109872</v>
+        <v>1.623364659011985</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.650356119720648</v>
@@ -10577,7 +10517,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.647884700619734</v>
+        <v>1.633303252845336</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.802656210645181</v>
@@ -10666,7 +10606,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.648472851441047</v>
+        <v>1.634378719889205</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.716040317327314</v>
@@ -10755,7 +10695,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.649928022694558</v>
+        <v>1.636649176129973</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.685627115272529</v>
@@ -10844,7 +10784,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.661275741561714</v>
+        <v>1.643168545995382</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.719919884806843</v>
@@ -10933,7 +10873,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.659071144497649</v>
+        <v>1.643163160497674</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.582539316741171</v>
@@ -11022,7 +10962,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.664048867928442</v>
+        <v>1.651189917418447</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.594688528499825</v>
@@ -11111,7 +11051,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.669352479752256</v>
+        <v>1.655385668805495</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.399509485331993</v>
@@ -11200,7 +11140,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.672525458826872</v>
+        <v>1.653357892491293</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.394240262676743</v>
@@ -11289,7 +11229,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.690630001921814</v>
+        <v>1.667686940089516</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.636291712824426</v>
@@ -11378,7 +11318,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.668242051171279</v>
+        <v>1.640087722060575</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.407815285009648</v>
@@ -11467,7 +11407,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.610835763619944</v>
+        <v>1.577323970576434</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.85179915413922</v>
@@ -11556,7 +11496,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.610473174082863</v>
+        <v>1.571908255238098</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.813203892271281</v>
@@ -11645,7 +11585,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.602622831784902</v>
+        <v>1.562542970065128</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.978095906013527</v>
@@ -11734,7 +11674,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.592763002845019</v>
+        <v>1.554503799194862</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.89996533829335</v>
@@ -11823,7 +11763,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.591283606008134</v>
+        <v>1.557980896288968</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.099147318146029</v>
@@ -11912,7 +11852,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.582699392378143</v>
+        <v>1.549722274974032</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.959491403505312</v>
@@ -12001,7 +11941,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.55780190826613</v>
+        <v>1.527668078581868</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.915817641231995</v>
@@ -12090,7 +12030,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.453170742034868</v>
+        <v>1.449713644180568</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.49929513146246</v>
@@ -12179,7 +12119,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.458769133971186</v>
+        <v>1.459588081423808</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.505415853031421</v>
@@ -12268,7 +12208,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.458046475438261</v>
+        <v>1.462794481801363</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.5094267114566</v>
@@ -12357,7 +12297,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.449632730704009</v>
+        <v>1.455788801406931</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.502202147308431</v>
@@ -12446,7 +12386,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.450738974115738</v>
+        <v>1.452607383186825</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.504170425813595</v>
@@ -12535,7 +12475,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.444143290602009</v>
+        <v>1.447781455483777</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.506681480926514</v>
@@ -12624,7 +12564,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.446769696803422</v>
+        <v>1.449952836709924</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.507083625819657</v>
@@ -12713,7 +12653,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.452152602299043</v>
+        <v>1.455151679444679</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.507949069160517</v>
@@ -12802,7 +12742,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.454897118354721</v>
+        <v>1.461045120585325</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.503560824528721</v>
@@ -12891,7 +12831,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.456778108094359</v>
+        <v>1.463213549356645</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.498433078858443</v>
@@ -12980,7 +12920,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.459676523805602</v>
+        <v>1.464380670573154</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.494387398264557</v>
@@ -13069,7 +13009,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.459147635251996</v>
+        <v>1.463653372468551</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.494138775852712</v>
@@ -13158,7 +13098,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.45713811516488</v>
+        <v>1.459194986667767</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.498400295123882</v>
@@ -13247,7 +13187,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.452857597500187</v>
+        <v>1.450779590238431</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.495092468967146</v>
@@ -13336,7 +13276,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.457250570026384</v>
+        <v>1.444161421696006</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.510590838290883</v>
@@ -13425,7 +13365,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.284604468464255</v>
+        <v>1.264436033568429</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.514009111396722</v>
@@ -13514,7 +13454,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.246222227278333</v>
+        <v>1.237076273227025</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.494387789149511</v>
@@ -13800,7 +13740,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.65636725800526</v>
+        <v>1.636499915578816</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.589222160536452</v>
@@ -13889,7 +13829,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.664490970282195</v>
+        <v>1.640362209351387</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.528111267123272</v>
@@ -13978,7 +13918,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.663575936164969</v>
+        <v>1.635087342683144</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.539736548424544</v>
@@ -14067,7 +14007,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.670849379301783</v>
+        <v>1.64211370709906</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.618963905963754</v>
@@ -14156,7 +14096,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.667814097495484</v>
+        <v>1.640714861980527</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.516174185271566</v>
@@ -14245,7 +14185,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.605413363793151</v>
+        <v>1.565413677593656</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.592566676484461</v>
@@ -14334,7 +14274,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.608040281454335</v>
+        <v>1.551891134815421</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.527397192181779</v>
@@ -14423,7 +14363,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.593311504613558</v>
+        <v>1.536701316599367</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.48821446541053</v>
@@ -14512,7 +14452,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.589399217956776</v>
+        <v>1.527080732920422</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.479451939776273</v>
@@ -14601,7 +14541,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.565539622690691</v>
+        <v>1.495467927814211</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.503759238257192</v>
@@ -14690,7 +14630,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.556130534420022</v>
+        <v>1.487451549949905</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.474182742541415</v>
@@ -14779,7 +14719,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.551457844626526</v>
+        <v>1.489618198864016</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.476511444448319</v>
@@ -14868,7 +14808,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.579591659064912</v>
+        <v>1.520201425682294</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.806243352927607</v>
@@ -14957,7 +14897,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.607252738920713</v>
+        <v>1.558937096737818</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.460255746354977</v>
@@ -15046,7 +14986,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.621786045556353</v>
+        <v>1.582883963934906</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.647263543671168</v>
@@ -15135,7 +15075,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.615716767594469</v>
+        <v>1.577636550353827</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.610558708968048</v>
@@ -15224,7 +15164,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.609523873039586</v>
+        <v>1.573590445793871</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.653297818951324</v>
@@ -15313,7 +15253,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.616522913748072</v>
+        <v>1.579214317333273</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.478470219426492</v>
@@ -15402,7 +15342,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.610299528414111</v>
+        <v>1.57011709478214</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.624954733497011</v>
@@ -15491,7 +15431,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.616670085614567</v>
+        <v>1.571006936214139</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.541290713740329</v>
@@ -15580,7 +15520,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.613676144346346</v>
+        <v>1.566634652488722</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.645442622213833</v>
@@ -15669,7 +15609,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.578796872560859</v>
+        <v>1.543081340915645</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.615900698481145</v>
@@ -15758,7 +15698,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.584061526568324</v>
+        <v>1.544928833937001</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.605964898870361</v>
@@ -15847,7 +15787,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.579694092487097</v>
+        <v>1.540515482986831</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.495809307860517</v>
@@ -15936,7 +15876,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.586628729627154</v>
+        <v>1.550231951563098</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.447897658739808</v>
@@ -16025,7 +15965,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.583649396006783</v>
+        <v>1.542076333172734</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.613712639278957</v>
@@ -16114,7 +16054,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.59024861834845</v>
+        <v>1.54592506653827</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.519383915769243</v>
@@ -16203,7 +16143,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.588034809427069</v>
+        <v>1.536457417867143</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.504972433076986</v>
@@ -16292,7 +16232,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.577312412017796</v>
+        <v>1.505126018440854</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.129172393012153</v>
@@ -16381,7 +16321,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.540249937493713</v>
+        <v>1.45729194653816</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.326444066449726</v>
@@ -16470,7 +16410,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.53151450048058</v>
+        <v>1.449134055049071</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.230069298809892</v>
@@ -16559,7 +16499,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.53054521496993</v>
+        <v>1.441973262197596</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.365567147465273</v>
@@ -16648,7 +16588,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.530955778058195</v>
+        <v>1.435487597440271</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.260285670491433</v>
@@ -16737,7 +16677,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.535436743668634</v>
+        <v>1.440269720889157</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.375976262142135</v>
@@ -16826,7 +16766,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.525681579836009</v>
+        <v>1.430891138919561</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.224095392266761</v>
@@ -16915,7 +16855,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.512078859417684</v>
+        <v>1.416121616803199</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.189898151507867</v>
@@ -17004,7 +16944,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.550577640789075</v>
+        <v>1.461501425992175</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.702296705686685</v>
@@ -17093,7 +17033,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.5740690065392</v>
+        <v>1.492928674645198</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.707794213750284</v>
@@ -17182,7 +17122,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.604224465696192</v>
+        <v>1.536748260731817</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.756010988845594</v>
@@ -17271,7 +17211,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.600338181910218</v>
+        <v>1.53449274020973</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.734022942948869</v>
@@ -17360,7 +17300,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.600774477673575</v>
+        <v>1.538139270115847</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.745586070144965</v>
@@ -17449,7 +17389,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.592062495596886</v>
+        <v>1.528024770519697</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.737979880906235</v>
@@ -17538,7 +17478,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.59403351858772</v>
+        <v>1.528598409886348</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.735477317375238</v>
@@ -17627,7 +17567,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.601017019346247</v>
+        <v>1.539569500892172</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.728464114044133</v>
@@ -17716,7 +17656,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.609053912745869</v>
+        <v>1.544652793150582</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.74968242094104</v>
@@ -17805,7 +17745,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.610353169093937</v>
+        <v>1.544458293415494</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.746047666604382</v>
@@ -17894,7 +17834,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.607357470609105</v>
+        <v>1.544991762291975</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.73677091770148</v>
@@ -17983,7 +17923,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.603762778885572</v>
+        <v>1.544070797485944</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.720113878755711</v>
@@ -18072,7 +18012,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.594756808709688</v>
+        <v>1.523775423650852</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.722594017082471</v>
@@ -18161,7 +18101,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.600867195257873</v>
+        <v>1.533676657586798</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.713512337708312</v>
@@ -18250,7 +18190,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.58429169466768</v>
+        <v>1.51918753466327</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.69204573635734</v>
@@ -18339,7 +18279,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.324032496231853</v>
+        <v>1.292684015633955</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.498851155084657</v>
@@ -18428,7 +18368,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.298947109749078</v>
+        <v>1.267287224317382</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.47886939928525</v>
@@ -18714,7 +18654,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.607283087566177</v>
+        <v>1.584566892962871</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.549800481474053</v>
@@ -18803,7 +18743,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.604573306562056</v>
+        <v>1.583592095506155</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.544995465641589</v>
@@ -18892,7 +18832,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.562293734776973</v>
+        <v>1.548860412448214</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.528216297945444</v>
@@ -18981,7 +18921,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.566810373285882</v>
+        <v>1.551667750908217</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.469345890885044</v>
@@ -19070,7 +19010,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.549575417501142</v>
+        <v>1.536867584330767</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.566444939845369</v>
@@ -19159,7 +19099,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.499420715535896</v>
+        <v>1.475871088763129</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.308647220278576</v>
@@ -19248,7 +19188,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.504592490950932</v>
+        <v>1.474650910644774</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.393049128737283</v>
@@ -19337,7 +19277,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.504376187706162</v>
+        <v>1.473060058203623</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.369388352522432</v>
@@ -19426,7 +19366,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.511390849010576</v>
+        <v>1.476205004460682</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.304155510018475</v>
@@ -19515,7 +19455,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.505362095348157</v>
+        <v>1.466947358047571</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.40169677483868</v>
@@ -19604,7 +19544,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.499041302369191</v>
+        <v>1.458685053829348</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.4414632653482</v>
@@ -19693,7 +19633,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.484972300346377</v>
+        <v>1.446086355722457</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.365556381046693</v>
@@ -19782,7 +19722,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.499604135484639</v>
+        <v>1.461969697230701</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.516146729012133</v>
@@ -19871,7 +19811,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.511191852965012</v>
+        <v>1.482242731350148</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.554701873399974</v>
@@ -19960,7 +19900,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.514294429473154</v>
+        <v>1.487143980647758</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.67134766630631</v>
@@ -20049,7 +19989,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.520114605999189</v>
+        <v>1.493122915773751</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.593623329140445</v>
@@ -20138,7 +20078,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.534832935726033</v>
+        <v>1.506719592212571</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.273626684420987</v>
@@ -20227,7 +20167,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.556783576327775</v>
+        <v>1.527694810386786</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.613193238620396</v>
@@ -20316,7 +20256,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.556445629794438</v>
+        <v>1.524953485513665</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.664898681261425</v>
@@ -20405,7 +20345,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.58352433787213</v>
+        <v>1.545577767722312</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.666240904899176</v>
@@ -20494,7 +20434,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.588529577077575</v>
+        <v>1.54692898396254</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.669116642296085</v>
@@ -20583,7 +20523,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.586849656016422</v>
+        <v>1.54909961611546</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.60027085856369</v>
@@ -20672,7 +20612,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.574329202748251</v>
+        <v>1.537728342757078</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.6509109101092</v>
@@ -20761,7 +20701,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.56540682825487</v>
+        <v>1.52834424840832</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.574752371493251</v>
@@ -20850,7 +20790,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.566105895386104</v>
+        <v>1.528746441764669</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.580667736105003</v>
@@ -20939,7 +20879,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.570335676239419</v>
+        <v>1.53165019106971</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.634927520011017</v>
@@ -21028,7 +20968,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.577919947698516</v>
+        <v>1.534537437216723</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.60511085024916</v>
@@ -21117,7 +21057,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.582725251248422</v>
+        <v>1.536190982402593</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.451411489000684</v>
@@ -21206,7 +21146,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.574816414847185</v>
+        <v>1.514231209688704</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.468062742548987</v>
@@ -21295,7 +21235,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.52234222303425</v>
+        <v>1.465069763707396</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.547281246505749</v>
@@ -21384,7 +21324,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.492442964249058</v>
+        <v>1.435258832522235</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.57238669592727</v>
@@ -21473,7 +21413,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.486479260678921</v>
+        <v>1.427046813750818</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.565145874787464</v>
@@ -21562,7 +21502,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.479991579424893</v>
+        <v>1.408099766382227</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.639681346639146</v>
@@ -21651,7 +21591,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.458475956588428</v>
+        <v>1.394186857486063</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.67677169083351</v>
@@ -21740,7 +21680,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.451104195316255</v>
+        <v>1.390306016435095</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.619971384582461</v>
@@ -21829,7 +21769,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.42187565156393</v>
+        <v>1.366062875474928</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.931435682072085</v>
@@ -21918,7 +21858,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.352435927754789</v>
+        <v>1.309578597624596</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.718950328445788</v>
@@ -22007,7 +21947,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.381703311150682</v>
+        <v>1.346333041964936</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.735301919973396</v>
@@ -22096,7 +22036,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.385823447579532</v>
+        <v>1.349185683740296</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.742301421237451</v>
@@ -22185,7 +22125,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.388208464809731</v>
+        <v>1.351107825583597</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.746829288316309</v>
@@ -22274,7 +22214,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.389255834345066</v>
+        <v>1.353566362673072</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.744248063756632</v>
@@ -22363,7 +22303,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.383972189397719</v>
+        <v>1.348830684764334</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.745664637483251</v>
@@ -22452,7 +22392,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.380572988813757</v>
+        <v>1.346044857317285</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.759931669749531</v>
@@ -22541,7 +22481,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.389850584451036</v>
+        <v>1.357011612886637</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.710618404419379</v>
@@ -22630,7 +22570,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.391245100163785</v>
+        <v>1.365142828625857</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.746356882336327</v>
@@ -22719,7 +22659,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.408008458736603</v>
+        <v>1.379423743465514</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.747985478460496</v>
@@ -22808,7 +22748,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.405959001220365</v>
+        <v>1.37788063586391</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.748005599152411</v>
@@ -22897,7 +22837,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.408337343322606</v>
+        <v>1.383184973236838</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.720449735548915</v>
@@ -22986,7 +22926,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.401311012812134</v>
+        <v>1.377507595479076</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.745136329310379</v>
@@ -23075,7 +23015,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.401140701739177</v>
+        <v>1.372519803572564</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.737559762734735</v>
@@ -23164,7 +23104,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.433048161280974</v>
+        <v>1.395398435741343</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.594494930252036</v>
@@ -23253,7 +23193,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.378944578085473</v>
+        <v>1.352130525526179</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.772822016426801</v>
@@ -23342,7 +23282,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.350261569619794</v>
+        <v>1.319835506592739</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.743355735894633</v>
@@ -23628,7 +23568,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.293968575105158</v>
+        <v>1.293393437663673</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.942073358084401</v>
@@ -23717,7 +23657,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.29072989707245</v>
+        <v>1.289132293350027</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.911710636812118</v>
@@ -23806,7 +23746,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.287172440690765</v>
+        <v>1.285892505023706</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.989296518828251</v>
@@ -23895,7 +23835,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.293662580917983</v>
+        <v>1.291378310689985</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.896161248672317</v>
@@ -23984,7 +23924,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.290565485769271</v>
+        <v>1.289481392586652</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.962976731016535</v>
@@ -24073,7 +24013,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.333405629908866</v>
+        <v>1.328085755265704</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.353318574916803</v>
@@ -24162,7 +24102,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.347254854269953</v>
+        <v>1.348456248720716</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.215513377890514</v>
@@ -24251,7 +24191,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.348824517287603</v>
+        <v>1.342244851118122</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.157788124558712</v>
@@ -24340,7 +24280,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.362312724491373</v>
+        <v>1.35372278665818</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.367853095980719</v>
@@ -24429,7 +24369,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.350872000856976</v>
+        <v>1.340290027970844</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.258717848269393</v>
@@ -24518,7 +24458,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.349519429200716</v>
+        <v>1.339136547608696</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.33125389285598</v>
@@ -24607,7 +24547,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.344031110985733</v>
+        <v>1.331490262644889</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.251030061181735</v>
@@ -24696,7 +24636,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.319158611355524</v>
+        <v>1.307429246060395</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.000745260651751</v>
@@ -24785,7 +24725,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.322498452930443</v>
+        <v>1.315170934255749</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.060289118542842</v>
@@ -24874,7 +24814,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.290003277835169</v>
+        <v>1.28580466713114</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.1619519061605</v>
@@ -24963,7 +24903,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.292681891103812</v>
+        <v>1.290369280454536</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.156840699842632</v>
@@ -25052,7 +24992,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.293671563192324</v>
+        <v>1.292900503291382</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.161836158315829</v>
@@ -25141,7 +25081,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.285888926450796</v>
+        <v>1.285252745979797</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.134717686422517</v>
@@ -25230,7 +25170,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.280569829390394</v>
+        <v>1.280671236473475</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.146437765990746</v>
@@ -25319,7 +25259,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.286835149456286</v>
+        <v>1.28649512836797</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.086788285004979</v>
@@ -25408,7 +25348,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.290284941939818</v>
+        <v>1.290016025277311</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.151226626982799</v>
@@ -25497,7 +25437,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.289003478261847</v>
+        <v>1.288388295852223</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.151616092226269</v>
@@ -25586,7 +25526,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.288098453015635</v>
+        <v>1.287407036176542</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.192242061747854</v>
@@ -25675,7 +25615,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.270101994826546</v>
+        <v>1.270988716934616</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.176530576987104</v>
@@ -25764,7 +25704,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.263433931432618</v>
+        <v>1.265920384070204</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.148310883618508</v>
@@ -25853,7 +25793,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.272881916831273</v>
+        <v>1.273597411793783</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.130595699303002</v>
@@ -25942,7 +25882,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.279433000968337</v>
+        <v>1.275357576877587</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.946195100360001</v>
@@ -26031,7 +25971,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.292654326514191</v>
+        <v>1.292688167889183</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.999551783879214</v>
@@ -26120,7 +26060,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.300715019069381</v>
+        <v>1.30114966620372</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.135934309374455</v>
@@ -26209,7 +26149,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.309181285061154</v>
+        <v>1.303037705227704</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.080705909204938</v>
@@ -26298,7 +26238,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.311974154257957</v>
+        <v>1.303282060992921</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.135176703192901</v>
@@ -26387,7 +26327,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.30571328231096</v>
+        <v>1.298197176852651</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.150694035319137</v>
@@ -26476,7 +26416,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.317867687683816</v>
+        <v>1.308412763626077</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.217820765988935</v>
@@ -26565,7 +26505,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.331077167280172</v>
+        <v>1.315863535807875</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.265063746428935</v>
@@ -26654,7 +26594,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.315906337776916</v>
+        <v>1.303163067766018</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.176138908358872</v>
@@ -26743,7 +26683,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.32150055831991</v>
+        <v>1.305927061372263</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.182739511004218</v>
@@ -26832,7 +26772,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.29161428982199</v>
+        <v>1.280306253054617</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.872827460380821</v>
@@ -26921,7 +26861,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.327855747638359</v>
+        <v>1.322061003000905</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.828942329603913</v>
@@ -27010,7 +26950,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.348930527729116</v>
+        <v>1.34024738817797</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.837563808658026</v>
@@ -27099,7 +27039,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.344543645140745</v>
+        <v>1.335399686704726</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.899271585244656</v>
@@ -27188,7 +27128,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.334460087669616</v>
+        <v>1.328005393185544</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.920627858397825</v>
@@ -27277,7 +27217,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.336748316635443</v>
+        <v>1.332355078162049</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.883717320528939</v>
@@ -27366,7 +27306,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.332771612924504</v>
+        <v>1.328986853284345</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.92070328117079</v>
@@ -27455,7 +27395,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.334069714412111</v>
+        <v>1.329767561890655</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.902343398967162</v>
@@ -27544,7 +27484,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.329894881452974</v>
+        <v>1.323149167975895</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.867204450438525</v>
@@ -27633,7 +27573,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.335411210680942</v>
+        <v>1.325915758863644</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.790735553420694</v>
@@ -27722,7 +27662,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.338302892237727</v>
+        <v>1.327172053534839</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.836561808858951</v>
@@ -27811,7 +27751,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.333413828309864</v>
+        <v>1.324996762183345</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.905829922668593</v>
@@ -27900,7 +27840,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.338766853706925</v>
+        <v>1.329653454686923</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.901354520937991</v>
@@ -27989,7 +27929,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.329117436163085</v>
+        <v>1.322245178935393</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.930644568102437</v>
@@ -28078,7 +28018,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.333527723070155</v>
+        <v>1.320837496725167</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.726056493056327</v>
@@ -28167,7 +28107,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.290065843707674</v>
+        <v>1.280285984341065</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.828301293021498</v>
@@ -28256,7 +28196,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.259079622628862</v>
+        <v>1.245233889582341</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.789707994169282</v>
@@ -28542,7 +28482,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.417926413559107</v>
+        <v>1.424423694570864</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.47163073009267</v>
@@ -28631,7 +28571,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.416041234275339</v>
+        <v>1.423130631700568</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.477139604829138</v>
@@ -28720,7 +28660,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.42441997875544</v>
+        <v>1.425198256672749</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.464904343459697</v>
@@ -28809,7 +28749,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.447669125059867</v>
+        <v>1.443405304016428</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.388399253707482</v>
@@ -28898,7 +28838,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.452883277588417</v>
+        <v>1.444439538592122</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.246624464780023</v>
@@ -28987,7 +28927,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.457266960780781</v>
+        <v>1.441289540576016</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.433149436569334</v>
@@ -29076,7 +29016,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.471981166042464</v>
+        <v>1.453718563444234</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.459887985130188</v>
@@ -29165,7 +29105,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.482695704958597</v>
+        <v>1.460108132909762</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.276651600938281</v>
@@ -29254,7 +29194,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.509606925506843</v>
+        <v>1.486762165194881</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.323692267201876</v>
@@ -29343,7 +29283,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.518500076890082</v>
+        <v>1.491059633449892</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.518463871411894</v>
@@ -29432,7 +29372,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.514313499484912</v>
+        <v>1.483122081606321</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.276604389543507</v>
@@ -29521,7 +29461,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.485671245276162</v>
+        <v>1.455582879941554</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.460356281909191</v>
@@ -29610,7 +29550,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.512859427283388</v>
+        <v>1.47825476893895</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.344393539001328</v>
@@ -29699,7 +29639,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.513041794368143</v>
+        <v>1.483201052840617</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.526659206172392</v>
@@ -29788,7 +29728,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.485955274689107</v>
+        <v>1.465662640584307</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.659429095116766</v>
@@ -29877,7 +29817,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.483440680749356</v>
+        <v>1.463352712436427</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.501377135064557</v>
@@ -29966,7 +29906,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.472658354440457</v>
+        <v>1.455343638529603</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.655196185958269</v>
@@ -30055,7 +29995,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.47644081174186</v>
+        <v>1.462605526199</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.524207270278641</v>
@@ -30144,7 +30084,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.473011855398965</v>
+        <v>1.456903673487991</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.541923649416915</v>
@@ -30233,7 +30173,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.480849911378291</v>
+        <v>1.459412912274601</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.560501679586185</v>
@@ -30322,7 +30262,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.492374961631717</v>
+        <v>1.466997805402253</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.654031753436588</v>
@@ -30411,7 +30351,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.473245818539152</v>
+        <v>1.446022992839255</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.463049362684007</v>
@@ -30500,7 +30440,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.476110784786133</v>
+        <v>1.446979815252368</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.700347970034003</v>
@@ -30589,7 +30529,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.482102875741595</v>
+        <v>1.453792594584282</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.503028189148052</v>
@@ -30678,7 +30618,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.461621214581019</v>
+        <v>1.436279589549387</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.660556204468238</v>
@@ -30767,7 +30707,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.464413071163138</v>
+        <v>1.439946055896923</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.671237923706853</v>
@@ -30856,7 +30796,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.483499782596089</v>
+        <v>1.455343790252441</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.685863466804488</v>
@@ -30945,7 +30885,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.479584121097678</v>
+        <v>1.451917226282174</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.557989482983501</v>
@@ -31034,7 +30974,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.492029136286985</v>
+        <v>1.457500007163047</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.641258569504106</v>
@@ -31123,7 +31063,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.504413860374623</v>
+        <v>1.456028240742989</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.56203834025865</v>
@@ -31212,7 +31152,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.503847304653937</v>
+        <v>1.454971157376369</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.349746652272517</v>
@@ -31301,7 +31241,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.50707787010594</v>
+        <v>1.455136833108794</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.289073828916929</v>
@@ -31390,7 +31330,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.48358249023295</v>
+        <v>1.433512731491974</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.380308535198576</v>
@@ -31479,7 +31419,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.483951045889477</v>
+        <v>1.433138828648078</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.554496805855555</v>
@@ -31568,7 +31508,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.48287658093325</v>
+        <v>1.437750854648763</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.516922061161626</v>
@@ -31657,7 +31597,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.453832638147744</v>
+        <v>1.410177156368778</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.724964377187836</v>
@@ -31746,7 +31686,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.348904894370966</v>
+        <v>1.324238829889231</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.593265872070562</v>
@@ -31835,7 +31775,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.372095761371178</v>
+        <v>1.357734220527029</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.614567474038263</v>
@@ -31924,7 +31864,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.375681222702791</v>
+        <v>1.359939846128654</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.603931250821301</v>
@@ -32013,7 +31953,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.366783863870322</v>
+        <v>1.353549864702756</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.609614433033789</v>
@@ -32102,7 +32042,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.365734407937582</v>
+        <v>1.354570809816776</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.620074125853219</v>
@@ -32191,7 +32131,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.359038454681147</v>
+        <v>1.344881572664143</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.625717478592289</v>
@@ -32280,7 +32220,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.361827432460609</v>
+        <v>1.3514884305606</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.633740535174836</v>
@@ -32369,7 +32309,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.365893652065724</v>
+        <v>1.357441868665668</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.638901466984319</v>
@@ -32458,7 +32398,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.365759043987857</v>
+        <v>1.359326476660542</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.645107855437116</v>
@@ -32547,7 +32487,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.368144961749298</v>
+        <v>1.36121667373241</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.640929836732361</v>
@@ -32636,7 +32576,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.376694688283646</v>
+        <v>1.368123618546374</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.63767947979999</v>
@@ -32725,7 +32665,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.390911427269528</v>
+        <v>1.378760075258291</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.629710822805759</v>
@@ -32814,7 +32754,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.388802392233119</v>
+        <v>1.377821598652935</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.631219944780715</v>
@@ -32903,7 +32843,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.387436589322169</v>
+        <v>1.372271128384718</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.643597127825785</v>
@@ -32992,7 +32932,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.43084129924274</v>
+        <v>1.40450205491848</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.491550422561421</v>
@@ -33081,7 +33021,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.388922326853593</v>
+        <v>1.373829317549519</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.689805461243622</v>
@@ -33170,7 +33110,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.363351697575346</v>
+        <v>1.346306595067382</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.686504040807919</v>
